--- a/Data/EC/NIT-9002695642.xlsx
+++ b/Data/EC/NIT-9002695642.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF87ADF-7C9A-492D-BE4F-C7E55AAEC908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{711A118F-AA2E-4D21-8C04-9A37069C1C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85068872-4EDD-4501-BB14-003281C0F74E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0767BED-C44E-49A9-BC84-78D1A3CE95E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,40 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32706348</t>
+  </si>
+  <si>
+    <t>DIANA LUZ DE LEON OBREGON</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>22464377</t>
+  </si>
+  <si>
+    <t>CARMEN ELENA MEZA ESTRADA</t>
+  </si>
+  <si>
     <t>9193183</t>
   </si>
   <si>
     <t>JOSE MARIA JIMENEZ MUNIVE</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>32706348</t>
-  </si>
-  <si>
-    <t>DIANA LUZ DE LEON OBREGON</t>
-  </si>
-  <si>
-    <t>22464377</t>
-  </si>
-  <si>
-    <t>CARMEN ELENA MEZA ESTRADA</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
+    <t>1128062701</t>
+  </si>
+  <si>
+    <t>JULIAN FELIPE CASTAÑO SALAZAR</t>
+  </si>
+  <si>
+    <t>2507</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53456778-7C5F-F506-EE7B-6E2203C8D903}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6332E6-1DB8-C510-4E2C-D68422B985B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,8 +872,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2630083-BB2C-4CAE-A6E3-598D805A331F}">
-  <dimension ref="B2:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B0AFC9-BBB8-4DDC-8E8B-F11E4D3139F1}">
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -875,7 +884,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -888,7 +897,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -933,7 +942,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -965,12 +974,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2040120</v>
+        <v>2176459</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -981,17 +990,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1018,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1041,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>90672</v>
+        <v>124674</v>
       </c>
       <c r="G16" s="18">
-        <v>2266800</v>
+        <v>3116850</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>124674</v>
@@ -1078,13 +1087,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>124674</v>
@@ -1107,13 +1116,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>90672</v>
+        <v>124674</v>
       </c>
       <c r="G19" s="18">
-        <v>2266800</v>
+        <v>3116850</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1124,13 +1133,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>124674</v>
@@ -1147,10 +1156,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1170,13 +1179,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>124674</v>
@@ -1193,19 +1202,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>90672</v>
+        <v>124674</v>
       </c>
       <c r="G23" s="18">
-        <v>2266800</v>
+        <v>3116850</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1216,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>124674</v>
@@ -1239,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
-        <v>90672</v>
+        <v>124674</v>
       </c>
       <c r="G25" s="18">
-        <v>2266800</v>
+        <v>3116850</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1262,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>124674</v>
@@ -1285,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
         <v>124674</v>
@@ -1308,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>90672</v>
@@ -1331,19 +1340,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
-        <v>124674</v>
+        <v>90672</v>
       </c>
       <c r="G29" s="18">
-        <v>3116850</v>
+        <v>2266800</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1354,19 +1363,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F30" s="18">
-        <v>124674</v>
+        <v>90672</v>
       </c>
       <c r="G30" s="18">
-        <v>3116850</v>
+        <v>2266800</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1377,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
         <v>90672</v>
@@ -1400,75 +1409,98 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F32" s="18">
-        <v>124674</v>
+        <v>90672</v>
       </c>
       <c r="G32" s="18">
-        <v>3116850</v>
+        <v>2266800</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="24">
-        <v>124674</v>
-      </c>
-      <c r="G33" s="24">
-        <v>3116850</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="E33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="18">
+        <v>90672</v>
+      </c>
+      <c r="G33" s="18">
+        <v>2266800</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="24">
+        <v>136339</v>
+      </c>
+      <c r="G34" s="24">
+        <v>3408480</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C39" s="32"/>
       <c r="H39" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002695642.xlsx
+++ b/Data/EC/NIT-9002695642.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{711A118F-AA2E-4D21-8C04-9A37069C1C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F241621-B050-4E69-9B17-57A9745CF820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0767BED-C44E-49A9-BC84-78D1A3CE95E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{90853C6A-9928-442B-8CF7-3A8119D90A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,43 +71,34 @@
     <t>DIANA LUZ DE LEON OBREGON</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>22464377</t>
+  </si>
+  <si>
+    <t>CARMEN ELENA MEZA ESTRADA</t>
+  </si>
+  <si>
+    <t>9193183</t>
+  </si>
+  <si>
+    <t>JOSE MARIA JIMENEZ MUNIVE</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
     <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>22464377</t>
-  </si>
-  <si>
-    <t>CARMEN ELENA MEZA ESTRADA</t>
-  </si>
-  <si>
-    <t>9193183</t>
-  </si>
-  <si>
-    <t>JOSE MARIA JIMENEZ MUNIVE</t>
-  </si>
-  <si>
-    <t>1128062701</t>
-  </si>
-  <si>
-    <t>JULIAN FELIPE CASTAÑO SALAZAR</t>
-  </si>
-  <si>
-    <t>2507</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +197,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6332E6-1DB8-C510-4E2C-D68422B985B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55693886-A228-DB0F-03B9-EBA16C6A54F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,8 +863,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B0AFC9-BBB8-4DDC-8E8B-F11E4D3139F1}">
-  <dimension ref="B2:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FB788F-EF8D-46EE-9DD8-3410BAE40C35}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -884,7 +875,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -897,7 +888,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -942,7 +933,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -974,12 +965,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2176459</v>
+        <v>2040120</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -990,17 +981,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1027,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1064,13 +1055,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>124674</v>
@@ -1087,19 +1078,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>124674</v>
+        <v>90672</v>
       </c>
       <c r="G18" s="18">
-        <v>3116850</v>
+        <v>2266800</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1116,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>124674</v>
@@ -1133,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>124674</v>
@@ -1156,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>124674</v>
+        <v>90672</v>
       </c>
       <c r="G21" s="18">
-        <v>3116850</v>
+        <v>2266800</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1179,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>124674</v>
@@ -1202,13 +1193,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>124674</v>
@@ -1225,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F24" s="18">
-        <v>124674</v>
+        <v>90672</v>
       </c>
       <c r="G24" s="18">
-        <v>3116850</v>
+        <v>2266800</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1248,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>124674</v>
@@ -1271,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>124674</v>
@@ -1294,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F27" s="18">
-        <v>124674</v>
+        <v>90672</v>
       </c>
       <c r="G27" s="18">
-        <v>3116850</v>
+        <v>2266800</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1317,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F28" s="18">
-        <v>90672</v>
+        <v>124674</v>
       </c>
       <c r="G28" s="18">
-        <v>2266800</v>
+        <v>3116850</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1340,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F29" s="18">
-        <v>90672</v>
+        <v>124674</v>
       </c>
       <c r="G29" s="18">
-        <v>2266800</v>
+        <v>3116850</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1363,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F30" s="18">
         <v>90672</v>
@@ -1386,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F31" s="18">
-        <v>90672</v>
+        <v>124674</v>
       </c>
       <c r="G31" s="18">
-        <v>2266800</v>
+        <v>3116850</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1409,98 +1400,75 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F32" s="18">
-        <v>90672</v>
+        <v>124674</v>
       </c>
       <c r="G32" s="18">
-        <v>2266800</v>
+        <v>3116850</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="F33" s="24">
         <v>90672</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="24">
         <v>2266800</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="24">
-        <v>136339</v>
-      </c>
-      <c r="G34" s="24">
-        <v>3408480</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C39" s="32"/>
       <c r="H39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
